--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="42" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -691,6 +691,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -708,30 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,43 +1075,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1156,58 +1156,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1232,23 +1232,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1557,7 +1557,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2874,13 +2874,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2892,6 +2885,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2902,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2935,43 +2935,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3016,58 +3016,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3092,23 +3092,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3146,13 +3146,21 @@
         <v>83</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3207,7 +3215,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3260,7 +3268,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3289,7 +3297,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3318,7 +3326,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3347,7 +3355,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3376,7 +3384,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3407,7 +3415,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3436,7 +3444,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3465,7 +3473,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3494,7 +3502,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3644,7 +3652,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3857,7 +3865,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -4145,7 +4153,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4263,7 +4271,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -4724,6 +4732,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4735,13 +4750,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4785,43 +4793,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4866,58 +4874,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4942,23 +4950,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4984,7 +4992,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5015,7 +5023,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5044,7 +5052,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5073,7 +5081,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5102,7 +5110,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5131,7 +5139,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5160,7 +5168,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5191,7 +5199,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5220,7 +5228,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5249,7 +5257,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5278,7 +5286,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6509,6 +6517,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6520,13 +6535,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="42" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <t>Không thuộc diện bảo hành</t>
   </si>
   <si>
-    <t>BG</t>
+    <t>Thay module GPS</t>
   </si>
 </sst>
 </file>
@@ -691,6 +691,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,32 +730,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,43 +1075,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1156,58 +1156,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1232,23 +1232,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,9 @@
       <c r="B6" s="61">
         <v>44657</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44685</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1298,7 +1300,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1313,7 +1315,9 @@
       <c r="B7" s="61">
         <v>44657</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44685</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1353,7 +1357,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1366,7 +1370,9 @@
       <c r="B8" s="61">
         <v>44657</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44685</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1410,7 +1416,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1445,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1468,7 +1474,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1497,7 +1503,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1532,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1557,7 +1563,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1592,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +1621,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1650,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2874,6 +2880,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2885,13 +2898,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2902,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="B6:R8"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2935,43 +2941,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3016,58 +3022,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3092,23 +3098,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3118,7 +3124,9 @@
       <c r="B6" s="61">
         <v>44657</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44685</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -3145,9 +3153,11 @@
       <c r="M6" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>385000</v>
+      </c>
       <c r="O6" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P6" s="39" t="s">
         <v>62</v>
@@ -3160,7 +3170,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3175,7 +3185,9 @@
       <c r="B7" s="61">
         <v>44657</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44685</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>66</v>
       </c>
@@ -3215,7 +3227,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3228,7 +3240,9 @@
       <c r="B8" s="61">
         <v>44657</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44685</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>66</v>
       </c>
@@ -3268,7 +3282,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3311,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3326,7 +3340,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3355,7 +3369,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3384,7 +3398,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3415,7 +3429,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3444,7 +3458,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3473,7 +3487,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3502,7 +3516,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4271,7 +4285,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -4732,13 +4746,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4750,6 +4757,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4793,43 +4807,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4874,58 +4888,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4950,23 +4964,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,7 +5006,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5023,7 +5037,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5052,7 +5066,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5081,7 +5095,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5110,7 +5124,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5139,7 +5153,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5168,7 +5182,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5199,7 +5213,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5228,7 +5242,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5257,7 +5271,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5286,7 +5300,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6517,13 +6531,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6535,6 +6542,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="42" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -691,6 +691,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -708,30 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,43 +1075,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1156,58 +1156,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1232,23 +1232,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1563,7 +1563,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2880,13 +2880,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2898,6 +2891,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2908,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2941,43 +2941,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3022,58 +3022,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3098,23 +3098,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3429,7 +3429,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4746,6 +4746,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4757,13 +4764,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4774,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4807,43 +4807,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4888,58 +4888,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4964,49 +4964,75 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="61">
+        <v>44657</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44685</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>867717030422811</v>
+      </c>
       <c r="F6" s="48"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="53"/>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5018,26 +5044,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="53"/>
+      <c r="B7" s="61">
+        <v>44657</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44685</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183038504713</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5047,26 +5099,56 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="61">
+        <v>44657</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44685</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>867857039927939</v>
+      </c>
       <c r="F8" s="48"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="G8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5076,26 +5158,56 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="61">
+        <v>44657</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44685</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="38">
+        <v>861694037971692</v>
+      </c>
       <c r="F9" s="48"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="1">
+        <v>385000</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5105,26 +5217,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="61">
+        <v>44657</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44685</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="38">
+        <v>866104026917883</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="64" t="s">
+        <v>73</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5134,26 +5272,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="61">
+        <v>44657</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44685</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="38">
+        <v>861694037955695</v>
+      </c>
       <c r="F11" s="48"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="53"/>
+      <c r="G11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5182,7 +5346,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5213,7 +5377,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5242,7 +5406,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5271,7 +5435,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5300,7 +5464,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5419,7 +5583,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5451,7 +5615,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5664,7 +5828,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -5888,7 +6052,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -5920,7 +6084,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -5952,7 +6116,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6070,7 +6234,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6531,6 +6695,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6542,13 +6713,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
